--- a/単体・総合テスト/総合テスト .xlsx
+++ b/単体・総合テスト/総合テスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA96062-DB69-4311-BE9F-92F366FEC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003AE73E-3C08-45ED-AB34-D39ED2ED529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -176,20 +176,6 @@
     <t>22</t>
   </si>
   <si>
-    <t>ログイン機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除機能</t>
-    <rPh sb="5" eb="9">
-      <t>サクジョキノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -220,16 +206,6 @@
     <t>32</t>
   </si>
   <si>
-    <t>アカウント更新機能</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
@@ -372,23 +348,6 @@
   </si>
   <si>
     <t>80</t>
-  </si>
-  <si>
-    <t>アカウント登録機能</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント削除機能</t>
-    <rPh sb="5" eb="9">
-      <t>サクジョキノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>81</t>
@@ -407,13 +366,6 @@
     <t>85</t>
   </si>
   <si>
-    <t>アカウント更新機能</t>
-    <rPh sb="5" eb="9">
-      <t>コウシンキノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -427,13 +379,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不正アクセス</t>
-    <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
@@ -489,10 +434,6 @@
   </si>
   <si>
     <t>107</t>
-  </si>
-  <si>
-    <t>セキュリティ</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>108</t>
@@ -566,6 +507,40 @@
     <t>メールアドレス登録済みとエラーになる</t>
     <rPh sb="7" eb="10">
       <t>トウロクズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別ブラウザで同じアカウントにてログインし、投稿する</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2つブラウザ用意</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理できる</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同時ログイン</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1006,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EAAC31-68CE-492E-A6CE-71BA9CDAFA80}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1068,16 +1043,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
@@ -1093,7 +1068,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>133</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>11</v>
@@ -1108,9 +1095,6 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1124,9 +1108,6 @@
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1140,9 +1121,7 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1161,9 +1140,6 @@
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1177,9 +1153,6 @@
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1193,9 +1166,6 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1209,9 +1179,6 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1225,9 +1192,6 @@
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1241,9 +1205,6 @@
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1257,9 +1218,6 @@
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1273,9 +1231,6 @@
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="8" t="s">
         <v>11</v>
@@ -1290,9 +1245,6 @@
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="8" t="s">
         <v>11</v>
@@ -1307,9 +1259,6 @@
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F16" s="10"/>
       <c r="G16" s="8" t="s">
         <v>11</v>
@@ -1324,9 +1273,6 @@
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="8" t="s">
         <v>11</v>
@@ -1341,9 +1287,6 @@
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="8" t="s">
         <v>11</v>
@@ -1358,9 +1301,6 @@
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="8" t="s">
         <v>11</v>
@@ -1375,9 +1315,6 @@
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="8" t="s">
         <v>11</v>
@@ -1392,9 +1329,6 @@
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="8" t="s">
         <v>11</v>
@@ -1409,9 +1343,6 @@
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="8" t="s">
         <v>11</v>
@@ -1426,9 +1357,6 @@
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1440,9 +1368,6 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -1456,9 +1381,6 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -1472,10 +1394,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
@@ -1488,10 +1407,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>11</v>
@@ -1504,10 +1420,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>11</v>
@@ -1520,10 +1433,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
@@ -1536,10 +1446,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
@@ -1552,10 +1459,7 @@
     </row>
     <row r="31" spans="1:11" ht="69.75" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>11</v>
@@ -1568,10 +1472,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>11</v>
@@ -1584,10 +1485,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
@@ -1600,10 +1498,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="10"/>
       <c r="F34" s="10"/>
@@ -1618,10 +1513,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="10"/>
       <c r="F35" s="10"/>
@@ -1636,10 +1528,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="10"/>
       <c r="F36" s="10"/>
@@ -1654,9 +1543,6 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="10"/>
@@ -1672,10 +1558,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" s="10"/>
       <c r="F38" s="10"/>
@@ -1690,10 +1573,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="F39" s="10"/>
@@ -1708,10 +1588,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D40" s="10"/>
       <c r="F40" s="10"/>
@@ -1726,10 +1603,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D41" s="10"/>
       <c r="F41" s="10"/>
@@ -1744,10 +1618,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D42" s="10"/>
       <c r="F42" s="10"/>
@@ -1762,10 +1633,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D43" s="10"/>
       <c r="F43" s="10"/>
@@ -1780,10 +1648,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D44" s="10"/>
       <c r="F44" s="10"/>
@@ -1798,10 +1663,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D45" s="10"/>
       <c r="F45" s="14"/>
@@ -1816,10 +1678,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D46" s="10"/>
       <c r="F46" s="14"/>
@@ -1834,10 +1693,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D47" s="10"/>
       <c r="F47" s="10"/>
@@ -1852,10 +1708,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D48" s="10"/>
       <c r="F48" s="10"/>
@@ -1870,10 +1723,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D49" s="10"/>
       <c r="F49" s="10"/>
@@ -1888,10 +1738,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D50" s="10"/>
       <c r="F50" s="10"/>
@@ -1906,10 +1753,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D51" s="10"/>
       <c r="F51" s="10"/>
@@ -1924,10 +1768,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D52" s="10"/>
       <c r="F52" s="10"/>
@@ -1942,10 +1783,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D53" s="10"/>
       <c r="F53" s="10"/>
@@ -1960,10 +1798,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D54" s="10"/>
       <c r="F54" s="10"/>
@@ -1978,10 +1813,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D55" s="10"/>
       <c r="F55" s="10"/>
@@ -1996,10 +1828,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D56" s="10"/>
       <c r="F56" s="10"/>
@@ -2014,10 +1843,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D57" s="10"/>
       <c r="F57" s="10"/>
@@ -2032,10 +1858,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D58" s="10"/>
       <c r="F58" s="10"/>
@@ -2050,10 +1873,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D59" s="10"/>
       <c r="F59" s="14"/>
@@ -2068,10 +1888,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>11</v>
@@ -2084,10 +1901,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>11</v>
@@ -2100,10 +1914,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>11</v>
@@ -2116,10 +1927,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>11</v>
@@ -2132,10 +1940,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>11</v>
@@ -2148,10 +1953,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>11</v>
@@ -2164,10 +1966,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>11</v>
@@ -2180,10 +1979,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>11</v>
@@ -2196,10 +1992,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>11</v>
@@ -2212,10 +2005,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>11</v>
@@ -2228,10 +2018,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="8" t="s">
@@ -2245,10 +2032,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="8" t="s">
@@ -2262,10 +2046,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="8" t="s">
@@ -2279,10 +2060,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="8" t="s">
@@ -2296,10 +2074,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="8" t="s">
@@ -2313,10 +2088,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="8" t="s">
@@ -2330,10 +2102,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="8" t="s">
@@ -2347,10 +2116,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="8" t="s">
@@ -2364,10 +2130,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="8" t="s">
@@ -2381,10 +2144,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>11</v>
@@ -2397,10 +2157,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>11</v>
@@ -2413,10 +2170,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>11</v>
@@ -2429,10 +2183,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>11</v>
@@ -2445,10 +2196,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>11</v>
@@ -2461,10 +2209,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>11</v>
@@ -2477,10 +2222,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>11</v>
@@ -2493,10 +2235,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>11</v>
@@ -2509,10 +2248,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>11</v>
@@ -2525,10 +2261,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>11</v>
@@ -2541,10 +2274,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>11</v>
@@ -2557,10 +2287,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>11</v>
@@ -2573,10 +2300,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>11</v>
@@ -2589,42 +2313,33 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="11"/>
       <c r="I92" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K92" s="8"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="11"/>
       <c r="I93" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K93" s="8"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>11</v>
@@ -2637,10 +2352,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>11</v>
@@ -2653,10 +2365,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>11</v>
@@ -2669,10 +2378,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>11</v>
@@ -2685,9 +2391,6 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G98" s="8" t="s">
@@ -2701,10 +2404,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>11</v>
@@ -2717,10 +2417,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>11</v>
@@ -2733,10 +2430,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>11</v>
@@ -2749,10 +2443,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>11</v>
@@ -2765,10 +2456,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>11</v>
@@ -2781,10 +2469,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>11</v>
@@ -2797,10 +2482,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>11</v>
@@ -2813,10 +2495,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>11</v>
@@ -2829,10 +2508,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>11</v>
@@ -2845,10 +2521,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>11</v>
@@ -2861,10 +2534,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>11</v>
@@ -2877,10 +2547,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>11</v>
@@ -2893,10 +2560,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>11</v>
@@ -2909,10 +2573,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>11</v>
@@ -2925,10 +2586,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>11</v>
@@ -2941,10 +2599,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>11</v>
@@ -2960,7 +2615,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="B116" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K116" s="8"/>
     </row>

--- a/単体・総合テスト/総合テスト .xlsx
+++ b/単体・総合テスト/総合テスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003AE73E-3C08-45ED-AB34-D39ED2ED529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F53EC6-2B07-41B6-BCEF-8D37902D7460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="140">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -541,6 +541,72 @@
     <t>同時ログイン</t>
     <rPh sb="0" eb="2">
       <t>ドウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メインページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿が長くなっても表示綺麗</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ヒョウジキレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿の数が多くなっても表示綺麗</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヒョウジキレイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メインページ表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長い文章を投稿する</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何個も投稿する</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -982,7 +1048,7 @@
   <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1095,6 +1161,18 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1107,6 +1185,18 @@
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>11</v>

--- a/単体・総合テスト/総合テスト .xlsx
+++ b/単体・総合テスト/総合テスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F53EC6-2B07-41B6-BCEF-8D37902D7460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490B743-B8EC-4E1B-ADD9-26044DF8A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>

--- a/単体・総合テスト/総合テスト .xlsx
+++ b/単体・総合テスト/総合テスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3490B743-B8EC-4E1B-ADD9-26044DF8A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A570AA-733F-4A01-BDE0-FB10910FA460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="218">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -116,9 +116,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -297,160 +294,6 @@
   </si>
   <si>
     <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>PC: Windows 11, Chrome、Edge</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>31NG</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>登録可能な内容で登録</t>
@@ -608,6 +451,1659 @@
     <rPh sb="3" eb="5">
       <t>トウコウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面表示</t>
+    <rPh sb="4" eb="8">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面の一番右上を見る</t>
+    <rPh sb="7" eb="9">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番上右側に「新規登録はこちら」とリンクがある</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面の一番右上を確認</t>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中にロゴの下を見る</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中にメールアドレスと薄く表示された入力欄がある</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面の中央の上を確認</t>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中にメールアドレス入力欄の下を見る</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>真ん中にパスワードと薄く表示された入力欄がある</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面の中央の下を確認</t>
+    <rPh sb="7" eb="9">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mysqlを確認し、DBのuser_dataを開いておく</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mysqlのデータを見ながら登録されていないメールアドレスとパスワードを入力し、ログインボタンを押す</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに登録されていないメールアドレスとパスワードを入力しログインすると「エラーが発生したためログイン情報を取得できません。」と表示される</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mysqlのデータを見ながら登録されてるメールアドレスとパスワードを入力し、ログインボタンを押す</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メインページに移行する</t>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/main.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正なアクセスですと赤いエラーメッセージがログイン画面上部に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/regist/regist_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/delete/delete_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update_confirm.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/update/update_complete.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でURL欄に「http://localhost/ToDoList/mypage.php」と入力する。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしメインページ表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のMy pageを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>My pageへ移行</t>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のLogoutを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面へ移行</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今日のやることの入力欄に文字を入力し、「投稿する」ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニックネームと一緒にカレンダー右側に表示される</t>
+    <rPh sb="7" eb="9">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーの日付をクリックする</t>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリックした日に投稿があればカレンダー右側に表示される</t>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーの月の横の三角ボタンを押す</t>
+    <rPh sb="6" eb="7">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月は移動し、土は青色の日付になる</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月は移動し、日曜、祝日は赤色の日付になる</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のmain pageを押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページに移行し、右上のmain pageを押す</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしマイページ表示</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページに表示されている過去の投稿の右にある「削除」ボタン押す</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除していいか確認あり、OKで削除される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページに表示されている過去の投稿の右にある「削除」ボタン押し、OK押す</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去の投稿のカレンダーマーク押し、年月を選択し、検索押す</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ネンツキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その月に投稿した内容が表示される</t>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録画面</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインページの右上から登録画面表示</t>
+    <rPh sb="8" eb="10">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力のまま確認するを押す</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未入力のエラー表示が赤字で入力欄の下に表示される</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス欄に適当に＠抜けたアドレス入力し確認するを押す</t>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「正しいメールアドレスを入力してください」と赤字で表示される</t>
+    <rPh sb="22" eb="24">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード欄に半角英数字、ハイフン、アットマーク以外の文字を入れ確認するボタンを押す</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「パスワードは半角英数字、-、＠のみ使用可能です」と赤字で表示される</t>
+    <rPh sb="26" eb="28">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面から戻るボタンで登録画面表示</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した値が表示されること確認し、編集もできること確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した値が表示され、編集もできる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード欄見る</t>
+    <rPh sb="5" eb="6">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードは●で表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示内容見る</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ナイヨウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録画面で入力した内容が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録するを押す</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成功で完了画面へ行く</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data表示し登録確認画面表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録済みのメアド入力する</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤文字でこのメールアドレスは既に登録されています。と出る</t>
+    <rPh sb="0" eb="3">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB接続できない状態で登録するを押す</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント登録できません。と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録完了画面が表示されている</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示のニックネームを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録したニックネームが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示のニックネームを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メインページへボタン押す</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し登録内容と登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに登録された内容と登録時間が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認しパスワードがハッシュ化されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに登録されたパスワードはハッシュ化されている</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更画面</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更画面が表示されている</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のmypageのリンク押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページに移行する</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニックネームの欄見る</t>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウントのニックネーム表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスの欄見る</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウントのメアド表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードの欄見る</t>
+    <rPh sb="6" eb="7">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更確認画面から戻るボタンで変更画面が表示されている</t>
+    <rPh sb="0" eb="6">
+      <t>ヘンコウカクニンガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更完了画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたニックネームと登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに変更されたニックネームと登録時間が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更内容と登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたメールアドレスと登録時間が追加されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに変更されたメールアドレスと登録時間が追加されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>トウロクジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認し変更されたパスワードがハッシュ化されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBに変更されたパスワードはハッシュ化されている</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マイページボタンを押す</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB接続できない状態で変更するを押す</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント変更できません。と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示内容を見る</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウントのニックネームとメールアドレスが表示されている</t>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面へ移行</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のMainpageのボタン押す</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面</t>
+    <rPh sb="0" eb="6">
+      <t>サクジョカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除確認画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタンを押す</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除画面に移行</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除完了画面に移行</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBのuser_data確認しアカウントが削除されてること確認</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBから削除されてる</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB接続できない状態で削除するを押す</t>
+    <rPh sb="2" eb="4">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録時にDBと接続できないなどの時エラーが発生したためアカウント削除ができません。と表示される</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除完了画面</t>
+    <rPh sb="0" eb="4">
+      <t>サクジョカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除完了画面が表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインページへボタンを押す</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインページに移行</t>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -710,7 +2206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -764,6 +2260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,7 +2547,7 @@
   <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K38" sqref="K38:K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1109,16 +2608,16 @@
         <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
@@ -1134,19 +2633,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>11</v>
@@ -1159,19 +2658,19 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
@@ -1184,19 +2683,19 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
@@ -1207,1542 +2706,1992 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1">
+    <row r="6" spans="1:11" ht="37.5">
       <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="37.5">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="75">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="37.5">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" ht="56.25">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="56.25">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="56.25">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" ht="56.25">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" s="20" customFormat="1" ht="56.25">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="56.25">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="56.25">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="56.25">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="56.25">
+      <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="56.25">
+      <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="G21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="37.5">
+      <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="37.5">
+      <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="7" t="s">
-        <v>37</v>
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="G27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="8"/>
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="B28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="8"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="37.5">
       <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="37.5">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="B30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="11"/>
-      <c r="I30" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" ht="69.75" customHeight="1">
+    <row r="31" spans="1:11" ht="37.5">
       <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="B31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="11"/>
-      <c r="I31" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="37.5">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="B32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="G32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="37.5">
       <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="B33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="11"/>
-      <c r="I33" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="8"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="37.5">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="G34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="11"/>
-      <c r="I34" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="11"/>
-      <c r="I35" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="11"/>
-      <c r="I36" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="G37" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="8"/>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="37.5">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="G38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="56.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="G39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="11"/>
-      <c r="I39" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="8"/>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="G40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="I40" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="G41" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="8"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="37.5">
       <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="G42" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="8"/>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="37.5">
       <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="B43" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="G43" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="11"/>
-      <c r="I43" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="8"/>
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="G44" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="11"/>
-      <c r="I44" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="8"/>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="F45" s="14"/>
+      <c r="B45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="G45" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H45" s="11"/>
-      <c r="I45" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="F46" s="14"/>
+      <c r="B46" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>179</v>
+      </c>
       <c r="G46" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="11"/>
-      <c r="I46" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="G47" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="11"/>
-      <c r="I47" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="8"/>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="37.5">
       <c r="A48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="G48" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="8"/>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="37.5">
       <c r="A49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H49" s="11"/>
-      <c r="I49" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="37.5">
       <c r="A50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="11"/>
-      <c r="I50" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="37.5">
       <c r="A51" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="B51" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="G51" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" ht="37.5">
       <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="B52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="G52" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="11"/>
-      <c r="I52" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="37.5">
       <c r="A53" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="B53" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="G53" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="11"/>
-      <c r="I53" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" ht="37.5">
       <c r="A54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="F54" s="10"/>
+      <c r="B54" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="G54" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H54" s="11"/>
-      <c r="I54" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="B55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="G55" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H55" s="11"/>
-      <c r="I55" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" ht="56.25">
       <c r="A56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="B56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="G56" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="37.5">
       <c r="A57" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="B57" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="G57" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H57" s="11"/>
-      <c r="I57" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="8"/>
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="B58" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="G58" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="F59" s="14"/>
+      <c r="B59" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="G59" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H59" s="11"/>
-      <c r="I59" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="B60" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="G60" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="11"/>
-      <c r="I60" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="8"/>
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="B61" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="G61" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="11"/>
-      <c r="I61" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="37.5">
       <c r="A62" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="B62" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="G62" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H62" s="11"/>
-      <c r="I62" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="56.25">
       <c r="A63" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="B63" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>211</v>
+      </c>
       <c r="G63" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H63" s="11"/>
-      <c r="I63" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="B64" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="G64" s="8" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="11"/>
-      <c r="I64" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="8"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="65" spans="6:11">
       <c r="H65" s="11"/>
-      <c r="I65" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I65" s="18"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="66" spans="6:11">
       <c r="H66" s="11"/>
-      <c r="I66" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I66" s="18"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="67" spans="6:11">
       <c r="H67" s="11"/>
-      <c r="I67" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I67" s="18"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="68" spans="6:11">
       <c r="H68" s="11"/>
-      <c r="I68" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I68" s="18"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="69" spans="6:11">
       <c r="H69" s="11"/>
-      <c r="I69" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I69" s="18"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="7" t="s">
-        <v>81</v>
-      </c>
+    <row r="70" spans="6:11">
       <c r="F70" s="10"/>
-      <c r="G70" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H70" s="11"/>
-      <c r="I70" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I70" s="18"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="7" t="s">
-        <v>82</v>
-      </c>
+    <row r="71" spans="6:11">
       <c r="F71" s="10"/>
-      <c r="G71" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H71" s="11"/>
-      <c r="I71" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I71" s="18"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="7" t="s">
-        <v>83</v>
-      </c>
+    <row r="72" spans="6:11">
       <c r="F72" s="10"/>
-      <c r="G72" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H72" s="11"/>
-      <c r="I72" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I72" s="18"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="7" t="s">
-        <v>84</v>
-      </c>
+    <row r="73" spans="6:11">
       <c r="F73" s="10"/>
-      <c r="G73" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H73" s="11"/>
-      <c r="I73" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I73" s="18"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="7" t="s">
-        <v>85</v>
-      </c>
+    <row r="74" spans="6:11">
       <c r="F74" s="10"/>
-      <c r="G74" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H74" s="11"/>
-      <c r="I74" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I74" s="18"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="7" t="s">
-        <v>86</v>
-      </c>
+    <row r="75" spans="6:11">
       <c r="F75" s="10"/>
-      <c r="G75" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H75" s="11"/>
-      <c r="I75" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I75" s="18"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="7" t="s">
-        <v>87</v>
-      </c>
+    <row r="76" spans="6:11">
       <c r="F76" s="10"/>
-      <c r="G76" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H76" s="11"/>
-      <c r="I76" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I76" s="18"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="7" t="s">
-        <v>88</v>
-      </c>
+    <row r="77" spans="6:11">
       <c r="F77" s="10"/>
-      <c r="G77" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H77" s="11"/>
-      <c r="I77" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I77" s="18"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="7" t="s">
-        <v>89</v>
-      </c>
+    <row r="78" spans="6:11">
       <c r="F78" s="10"/>
-      <c r="G78" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H78" s="11"/>
-      <c r="I78" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I78" s="18"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="79" spans="6:11">
       <c r="H79" s="11"/>
-      <c r="I79" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I79" s="18"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="80" spans="6:11">
       <c r="H80" s="11"/>
-      <c r="I80" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I80" s="18"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="81" spans="8:11">
       <c r="H81" s="11"/>
-      <c r="I81" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I81" s="18"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="82" spans="8:11">
       <c r="H82" s="11"/>
-      <c r="I82" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I82" s="18"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="83" spans="8:11">
       <c r="H83" s="11"/>
-      <c r="I83" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I83" s="18"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="84" spans="8:11">
       <c r="H84" s="11"/>
-      <c r="I84" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I84" s="18"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="85" spans="8:11">
       <c r="H85" s="11"/>
-      <c r="I85" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I85" s="18"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="86" spans="8:11">
       <c r="H86" s="11"/>
-      <c r="I86" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I86" s="18"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="87" spans="8:11">
       <c r="H87" s="11"/>
-      <c r="I87" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I87" s="18"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="88" spans="8:11">
       <c r="H88" s="11"/>
-      <c r="I88" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I88" s="18"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="89" spans="8:11">
       <c r="H89" s="11"/>
-      <c r="I89" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I89" s="18"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="90" spans="8:11">
       <c r="H90" s="11"/>
-      <c r="I90" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I90" s="18"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="91" spans="8:11">
       <c r="H91" s="11"/>
-      <c r="I91" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I91" s="18"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="92" spans="8:11">
       <c r="H92" s="11"/>
-      <c r="I92" s="18" t="s">
-        <v>102</v>
-      </c>
+      <c r="I92" s="18"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="93" spans="8:11">
       <c r="H93" s="11"/>
-      <c r="I93" s="18" t="s">
-        <v>102</v>
-      </c>
+      <c r="I93" s="18"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="94" spans="8:11">
       <c r="H94" s="11"/>
-      <c r="I94" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I94" s="18"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="95" spans="8:11">
       <c r="H95" s="11"/>
-      <c r="I95" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I95" s="18"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="96" spans="8:11">
       <c r="H96" s="11"/>
-      <c r="I96" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I96" s="18"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="97" spans="8:11">
       <c r="H97" s="11"/>
-      <c r="I97" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I97" s="18"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="98" spans="8:11">
       <c r="H98" s="11"/>
-      <c r="I98" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I98" s="18"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="99" spans="8:11">
       <c r="H99" s="11"/>
-      <c r="I99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K99" s="9"/>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="I99" s="18"/>
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="8:11">
       <c r="H100" s="11"/>
-      <c r="I100" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I100" s="18"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="101" spans="8:11">
       <c r="H101" s="11"/>
-      <c r="I101" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I101" s="18"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="102" spans="8:11">
       <c r="H102" s="11"/>
-      <c r="I102" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I102" s="18"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="103" spans="8:11">
       <c r="H103" s="11"/>
-      <c r="I103" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I103" s="18"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="104" spans="8:11">
       <c r="H104" s="11"/>
-      <c r="I104" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I104" s="18"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="105" spans="8:11">
       <c r="H105" s="11"/>
-      <c r="I105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="I105" s="18"/>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106" spans="8:11">
       <c r="H106" s="11"/>
-      <c r="I106" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K106" s="9"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="I106" s="18"/>
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107" spans="8:11">
       <c r="H107" s="11"/>
-      <c r="I107" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K107" s="9"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="I107" s="18"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="8:11">
       <c r="H108" s="11"/>
-      <c r="I108" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K108" s="9"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="I108" s="18"/>
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109" spans="8:11">
       <c r="H109" s="11"/>
-      <c r="I109" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I109" s="18"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="110" spans="8:11">
       <c r="H110" s="11"/>
-      <c r="I110" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I110" s="18"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="111" spans="8:11">
       <c r="H111" s="11"/>
-      <c r="I111" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I111" s="18"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="112" spans="8:11">
       <c r="H112" s="11"/>
-      <c r="I112" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I112" s="18"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="113" spans="8:11">
       <c r="H113" s="11"/>
-      <c r="I113" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I113" s="18"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="114" spans="8:11">
       <c r="H114" s="11"/>
-      <c r="I114" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="I114" s="18"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="8:11">
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11">
-      <c r="B116" s="8" t="s">
-        <v>126</v>
-      </c>
+    <row r="116" spans="8:11">
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="8:11">
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="8:11">
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="8:11">
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="8:11">
       <c r="K120" s="8"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="8:11">
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="8:11">
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="8:11">
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="8:11">
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="8:11">
       <c r="K125" s="8"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="8:11">
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="8:11">
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="8:11">
       <c r="K128" s="8"/>
     </row>
     <row r="129" spans="11:11">

--- a/単体・総合テスト/総合テスト .xlsx
+++ b/単体・総合テスト/総合テスト .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\単体・総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A570AA-733F-4A01-BDE0-FB10910FA460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E832F-2D20-42EE-A99D-CE6682250249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D09E1E91-4D60-409D-B824-A3C6CF61FC3B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="219">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -2104,6 +2104,10 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2547,7 +2551,7 @@
   <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38:K151"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2622,9 +2626,14 @@
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="11">
+        <v>45957</v>
+      </c>
       <c r="I2" s="18" t="s">
         <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K2" s="13"/>
     </row>
@@ -2650,9 +2659,14 @@
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11">
+        <v>45957</v>
+      </c>
       <c r="I3" s="18" t="s">
         <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K3" s="9"/>
     </row>
@@ -2675,9 +2689,14 @@
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="11">
+        <v>45957</v>
+      </c>
       <c r="I4" s="18" t="s">
         <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K4" s="9"/>
     </row>
@@ -2700,9 +2719,14 @@
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11">
+        <v>45957</v>
+      </c>
       <c r="I5" s="18" t="s">
         <v>12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -2728,9 +2752,14 @@
       <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8" t="s">
-        <v>12</v>
+      <c r="H6" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K6" s="9"/>
     </row>
@@ -2756,9 +2785,14 @@
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8" t="s">
-        <v>12</v>
+      <c r="H7" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -2784,9 +2818,14 @@
       <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="8" t="s">
-        <v>12</v>
+      <c r="H8" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K8" s="9"/>
     </row>
@@ -2810,11 +2849,15 @@
       <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="12"/>
+      <c r="H9" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="37.5">
@@ -2836,9 +2879,14 @@
       <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8" t="s">
-        <v>12</v>
+      <c r="H10" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K10" s="8"/>
     </row>
@@ -2864,9 +2912,14 @@
       <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8" t="s">
-        <v>12</v>
+      <c r="H11" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K11" s="8"/>
     </row>
@@ -2892,9 +2945,14 @@
       <c r="G12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8" t="s">
-        <v>12</v>
+      <c r="H12" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K12" s="8"/>
     </row>
@@ -2920,9 +2978,14 @@
       <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8" t="s">
-        <v>12</v>
+      <c r="H13" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K13" s="8"/>
     </row>
@@ -2948,9 +3011,14 @@
       <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="8" t="s">
-        <v>12</v>
+      <c r="H14" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K14" s="8"/>
     </row>
@@ -2976,9 +3044,14 @@
       <c r="G15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="8" t="s">
-        <v>12</v>
+      <c r="H15" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K15" s="8"/>
     </row>
@@ -3004,11 +3077,15 @@
       <c r="G16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="12"/>
+      <c r="H16" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="56.25">
@@ -3033,9 +3110,14 @@
       <c r="G17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="8" t="s">
-        <v>12</v>
+      <c r="H17" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K17" s="8"/>
     </row>
@@ -3061,9 +3143,14 @@
       <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="8" t="s">
-        <v>12</v>
+      <c r="H18" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -3089,9 +3176,14 @@
       <c r="G19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="8" t="s">
-        <v>12</v>
+      <c r="H19" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K19" s="8"/>
     </row>
@@ -3117,9 +3209,14 @@
       <c r="G20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="8" t="s">
-        <v>12</v>
+      <c r="H20" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="K20" s="8"/>
     </row>
@@ -3145,11 +3242,15 @@
       <c r="G21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="8"/>
+      <c r="H21" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11">
@@ -3174,11 +3275,15 @@
       <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="8"/>
+      <c r="H22" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11">
@@ -3203,11 +3308,15 @@
       <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="8"/>
+      <c r="H23" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" ht="37.5">
@@ -3232,11 +3341,15 @@
       <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="8"/>
+      <c r="H24" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" ht="37.5">
@@ -3261,11 +3374,15 @@
       <c r="G25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="8"/>
+      <c r="H25" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11">
@@ -3290,11 +3407,15 @@
       <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="8"/>
+      <c r="H26" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11">
@@ -3319,11 +3440,15 @@
       <c r="G27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="8"/>
+      <c r="H27" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11">
@@ -3348,11 +3473,15 @@
       <c r="G28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="8"/>
+      <c r="H28" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="37.5">
@@ -3377,11 +3506,15 @@
       <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="8"/>
+      <c r="H29" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" ht="37.5">
@@ -3406,11 +3539,15 @@
       <c r="G30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="8"/>
+      <c r="H30" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" ht="37.5">
@@ -3435,11 +3572,15 @@
       <c r="G31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="8"/>
+      <c r="H31" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="37.5">
@@ -3464,11 +3605,15 @@
       <c r="G32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="8"/>
+      <c r="H32" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="37.5">
@@ -3493,11 +3638,15 @@
       <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="8"/>
+      <c r="H33" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" ht="37.5">
@@ -3522,11 +3671,15 @@
       <c r="G34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="8"/>
+      <c r="H34" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11">
@@ -3551,11 +3704,15 @@
       <c r="G35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="8"/>
+      <c r="H35" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11">
@@ -3580,11 +3737,15 @@
       <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="8"/>
+      <c r="H36" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11">
@@ -3609,11 +3770,15 @@
       <c r="G37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="8"/>
+      <c r="H37" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" ht="37.5">
@@ -3635,11 +3800,15 @@
       <c r="G38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="8"/>
+      <c r="H38" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K38" s="8"/>
     </row>
     <row r="39" spans="1:11" ht="56.25">
@@ -3661,11 +3830,15 @@
       <c r="G39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="8"/>
+      <c r="H39" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11">
@@ -3690,11 +3863,15 @@
       <c r="G40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="8"/>
+      <c r="H40" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K40" s="8"/>
     </row>
     <row r="41" spans="1:11">
@@ -3719,11 +3896,15 @@
       <c r="G41" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="8"/>
+      <c r="H41" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" ht="37.5">
@@ -3748,11 +3929,15 @@
       <c r="G42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="8"/>
+      <c r="H42" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="1:11" ht="37.5">
@@ -3777,11 +3962,15 @@
       <c r="G43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="8"/>
+      <c r="H43" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11">
@@ -3806,11 +3995,15 @@
       <c r="G44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="8"/>
+      <c r="H44" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11">
@@ -3835,11 +4028,15 @@
       <c r="G45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="8"/>
+      <c r="H45" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11">
@@ -3864,11 +4061,15 @@
       <c r="G46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="8"/>
+      <c r="H46" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11">
@@ -3893,11 +4094,15 @@
       <c r="G47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="8"/>
+      <c r="H47" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" ht="37.5">
@@ -3922,11 +4127,15 @@
       <c r="G48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="8"/>
+      <c r="H48" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:11" ht="37.5">
@@ -3951,11 +4160,15 @@
       <c r="G49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="8"/>
+      <c r="H49" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" ht="37.5">
@@ -3980,11 +4193,15 @@
       <c r="G50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="8"/>
+      <c r="H50" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K50" s="8"/>
     </row>
     <row r="51" spans="1:11" ht="37.5">
@@ -4009,11 +4226,15 @@
       <c r="G51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="8"/>
+      <c r="H51" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" ht="37.5">
@@ -4038,11 +4259,15 @@
       <c r="G52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="8"/>
+      <c r="H52" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" ht="37.5">
@@ -4067,11 +4292,15 @@
       <c r="G53" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="8"/>
+      <c r="H53" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" ht="37.5">
@@ -4096,11 +4325,15 @@
       <c r="G54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="8"/>
+      <c r="H54" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11">
@@ -4125,11 +4358,15 @@
       <c r="G55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="8"/>
+      <c r="H55" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" ht="56.25">
@@ -4154,11 +4391,15 @@
       <c r="G56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="8"/>
+      <c r="H56" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" ht="37.5">
@@ -4183,11 +4424,15 @@
       <c r="G57" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="8"/>
+      <c r="H57" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11">
@@ -4212,11 +4457,15 @@
       <c r="G58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="8"/>
+      <c r="H58" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:11">
@@ -4241,11 +4490,15 @@
       <c r="G59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="8"/>
+      <c r="H59" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11">
@@ -4270,11 +4523,15 @@
       <c r="G60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="8"/>
+      <c r="H60" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11">
@@ -4299,11 +4556,15 @@
       <c r="G61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="8"/>
+      <c r="H61" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11" ht="37.5">
@@ -4328,11 +4589,15 @@
       <c r="G62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="8"/>
+      <c r="H62" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" ht="56.25">
@@ -4357,11 +4622,15 @@
       <c r="G63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="8"/>
+      <c r="H63" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11">
@@ -4386,11 +4655,15 @@
       <c r="G64" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="8"/>
+      <c r="H64" s="11">
+        <v>45957</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>218</v>
+      </c>
       <c r="K64" s="8"/>
     </row>
     <row r="65" spans="6:11">
